--- a/data/leistungsdaten.xlsx
+++ b/data/leistungsdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE10C320-4CC8-47AB-B4E9-6B08BC3D0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4FB94-96D7-4B17-975A-83C5A1DF9AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDBC17EA-7A11-4387-8C71-E479C0E1629A}"/>
   </bookViews>
@@ -36,16 +36,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Jahr</t>
+    <t>jahr</t>
   </si>
   <si>
-    <t>Flüge</t>
+    <t>fluege</t>
   </si>
   <si>
-    <t>Fluggäste</t>
+    <t>fluggaeste</t>
   </si>
   <si>
-    <t>Sitzladefaktor</t>
+    <t>sitzladefaktor</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,7 +400,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +524,7 @@
       <c r="B9">
         <v>1130008</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>130040000</v>
       </c>
       <c r="D9">
@@ -539,7 +538,7 @@
       <c r="B10">
         <v>1228920</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>142335000</v>
       </c>
       <c r="D10">
@@ -553,7 +552,7 @@
       <c r="B11">
         <v>1177315</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>145190000</v>
       </c>
       <c r="D11">
@@ -567,7 +566,7 @@
       <c r="B12">
         <v>390900</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>36354000</v>
       </c>
       <c r="D12">
@@ -581,7 +580,7 @@
       <c r="B13">
         <v>460029</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>46949000</v>
       </c>
       <c r="D13">

--- a/data/leistungsdaten.xlsx
+++ b/data/leistungsdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conny\Desktop\Computerlinguistik\Semester 8\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE4FB94-96D7-4B17-975A-83C5A1DF9AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B7E15-53D1-46B0-B9DA-3DA07CE948C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDBC17EA-7A11-4387-8C71-E479C0E1629A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>jahr</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>sitzladefaktor</t>
+  </si>
+  <si>
+    <t>aggregate_id</t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96850CA1-D72D-4264-8F07-15231AA7309D}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +421,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -432,8 +438,11 @@
       <c r="D2">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -446,8 +455,11 @@
       <c r="D3">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -460,8 +472,11 @@
       <c r="D4">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -474,8 +489,11 @@
       <c r="D5">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="D6">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -502,8 +523,11 @@
       <c r="D7">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -516,8 +540,11 @@
       <c r="D8">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -530,8 +557,11 @@
       <c r="D9">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -544,8 +574,11 @@
       <c r="D10">
         <v>81.400000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -558,8 +591,11 @@
       <c r="D11">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -572,8 +608,11 @@
       <c r="D12">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -586,8 +625,11 @@
       <c r="D13">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -600,8 +642,11 @@
       <c r="D14">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -613,6 +658,9 @@
       </c>
       <c r="D15">
         <v>82.9</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
